--- a/PerformanceAvgResponse.xlsx
+++ b/PerformanceAvgResponse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ccc3ee29a4aa332/Boulder S4/Distributed Systems/Assignment1/ecomm_dsystems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="11_F25DC773A252ABDACC10488859D97A925ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65EBD6E0-9141-4FE3-9C74-C15D76D7D3F3}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_F25DC773A252ABDACC10488859D97A925ADE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BAE5D9E-201F-43C4-853C-7525453D60B3}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>No of Client Buyers</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>Finished With Errors</t>
+  </si>
+  <si>
+    <t>Avg Response Time(ms)</t>
+  </si>
+  <si>
+    <t>Avg throughput (Ops/Sec)</t>
+  </si>
+  <si>
+    <t>No of Buyers/Sellers</t>
   </si>
 </sst>
 </file>
@@ -52,7 +61,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,6 +71,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -78,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -87,6 +102,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -633,6 +651,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38597189346833777"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1137,6 +1163,980 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg Response Time(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$10:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F626-41C7-933D-31AFC44D4DBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="878335888"/>
+        <c:axId val="878336304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="878335888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>No of Buyers Sellers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="878336304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="878336304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Avg Response(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="878335888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Avg throughput (Ops/Sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$10:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$10:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7380</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A197-4235-A48A-A1B27D5919F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="976869856"/>
+        <c:axId val="976870688"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="976869856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>No of Buyers/Sellers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976870688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="976870688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>No of Operations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="976869856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1217,6 +2217,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2249,20 +3329,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>262729</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>132027</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>645242</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>941915</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>149677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2289,16 +4401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1258092</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>18784</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3212</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>109801</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>115661</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2323,7 +4435,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>251732</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>273275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8092CB14-ACDD-A68A-6C91-B60EB99666E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585107</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2E417B2-9E7A-DBB1-C69B-339741B610F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2591,14 +4779,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:I1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="17.46484375" customWidth="1"/>
     <col min="3" max="3" width="25.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.53125" customWidth="1"/>
+    <col min="5" max="5" width="10.53125" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" customWidth="1"/>
+    <col min="7" max="7" width="26.19921875" customWidth="1"/>
+    <col min="8" max="8" width="23.06640625" customWidth="1"/>
     <col min="10" max="10" width="16.9296875" customWidth="1"/>
     <col min="11" max="11" width="24.6640625" customWidth="1"/>
   </cols>
@@ -2616,6 +4809,15 @@
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.45">
@@ -2625,6 +4827,15 @@
       <c r="C10" s="3">
         <v>4</v>
       </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2906</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.45">
@@ -2634,6 +4845,15 @@
       <c r="C11" s="3">
         <v>10.6</v>
       </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3">
+        <v>13.8</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4048</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.45">
@@ -2642,6 +4862,15 @@
       </c>
       <c r="C12" s="3">
         <v>76.959999999999994</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>122.7</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7380</v>
       </c>
       <c r="I12" s="1"/>
     </row>
@@ -2693,6 +4922,8 @@
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.45">
@@ -2702,6 +4933,7 @@
       <c r="C19" s="3">
         <v>8</v>
       </c>
+      <c r="D19" s="3"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.45">
@@ -2711,6 +4943,7 @@
       <c r="C20" s="3">
         <v>24.5</v>
       </c>
+      <c r="D20" s="3"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.45">
@@ -2747,6 +4980,7 @@
       <c r="C24" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="D24" s="3"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.45">
